--- a/UploadList/UploadClassinfoSample.xlsx
+++ b/UploadList/UploadClassinfoSample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/socally/AllFYP/FYPTesting/UploadList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85BD294-07DC-E04E-9B5E-70DBD12DDA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8A2E68-F4EB-F74F-B970-088C2FDC8BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -195,13 +195,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -518,15 +515,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
     <col min="2" max="2" width="6.1640625" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
     <col min="4" max="4" width="8.83203125" customWidth="1"/>
     <col min="6" max="6" width="3.1640625" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" customWidth="1"/>
@@ -1391,211 +1388,211 @@
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="3" customFormat="1">
-      <c r="A34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="3">
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
         <v>2045</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="3" t="s">
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34">
         <v>1</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="1">
         <v>0.60416666666666663</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="1">
         <v>0.68055555555555547</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="3" customFormat="1">
-      <c r="A35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="3">
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
         <v>2045</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="3" t="s">
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35">
         <v>1</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="1">
         <v>0.60416666666666663</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="1">
         <v>0.68055555555555547</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="3" customFormat="1">
-      <c r="A36" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="3">
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36">
         <v>2045</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="3" t="s">
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36">
         <v>4</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="1">
         <v>0.47916666666666669</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="1">
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="3" customFormat="1">
-      <c r="A37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="3">
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37">
         <v>2045</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="3" t="s">
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37">
         <v>4</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="1">
         <v>0.47916666666666669</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="1">
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="3" customFormat="1">
-      <c r="A38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="3">
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38">
         <v>2045</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="2">
         <v>20201</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="3" t="s">
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38">
         <v>3</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="1">
         <v>0.6875</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="1">
         <v>0.76388888888888884</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="3" customFormat="1">
-      <c r="A39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="3">
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
         <v>2045</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="2">
         <v>20201</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39">
         <v>3</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="1">
         <v>0.6875</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="1">
         <v>0.76388888888888884</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="3" customFormat="1">
-      <c r="A40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="3">
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40">
         <v>2045</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="2">
         <v>20201</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="3" t="s">
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40">
         <v>4</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="1">
         <v>0.52083333333333337</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="1">
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="3" customFormat="1">
-      <c r="A41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="3">
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
         <v>2045</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="2">
         <v>20201</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="3" t="s">
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41">
         <v>4</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="1">
         <v>0.52083333333333337</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="1">
         <v>0.55555555555555558</v>
       </c>
     </row>

--- a/UploadList/UploadClassinfoSample.xlsx
+++ b/UploadList/UploadClassinfoSample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/socally/AllFYP/FYPTesting/UploadList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8A2E68-F4EB-F74F-B970-088C2FDC8BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60ACA9FE-2951-C746-A3EC-91A0629F23DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="35">
   <si>
     <t>Cdept</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,6 +152,26 @@
   </si>
   <si>
     <t>CEC911</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GCAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAB610</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LMC509</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAB509</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2142,6 +2162,214 @@
         <v>0.68055555555555547</v>
       </c>
     </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63">
+        <v>4107</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0.51388888888888895</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64">
+        <v>4107</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0.3888888888888889</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65">
+        <v>4025</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66">
+        <v>4025</v>
+      </c>
+      <c r="C66">
+        <v>10001</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0.59722222222222221</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67">
+        <v>3205</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>31</v>
+      </c>
+      <c r="E67" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0.51388888888888895</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68">
+        <v>4057</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68">
+        <v>4</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0.47222222222222227</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69">
+        <v>4096</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" t="s">
+        <v>33</v>
+      </c>
+      <c r="F69">
+        <v>5</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0.72222222222222221</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70">
+        <v>4097</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>31</v>
+      </c>
+      <c r="E70" t="s">
+        <v>34</v>
+      </c>
+      <c r="F70">
+        <v>5</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0.72222222222222221</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
